--- a/public/uploads/PlanificaciÃ³n semana 11 2023 (4).xlsx
+++ b/public/uploads/PlanificaciÃ³n semana 11 2023 (4).xlsx
@@ -5,23 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Desktop\planificacion tte8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D89FEF8-AD3D-4E36-95E2-1F8A670C0613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B45C6A0-7F62-49D3-B0E0-CC96415903FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0 Control" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="1 Peticiones" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="2 TRAFICO" sheetId="21" state="hidden" r:id="rId3"/>
-    <sheet name="3 INF.OP" sheetId="19" state="hidden" r:id="rId4"/>
-    <sheet name="4 MANT.VIAS" sheetId="20" state="hidden" r:id="rId5"/>
-    <sheet name="5 INTERFLOW" sheetId="23" state="hidden" r:id="rId6"/>
+    <sheet name="0 Control" sheetId="1" r:id="rId1"/>
+    <sheet name="1 Peticiones" sheetId="2" r:id="rId2"/>
+    <sheet name="2 TRAFICO" sheetId="21" r:id="rId3"/>
+    <sheet name="3 INF.OP" sheetId="19" r:id="rId4"/>
+    <sheet name="4 MANT.VIAS" sheetId="20" r:id="rId5"/>
+    <sheet name="5 INTERFLOW" sheetId="23" r:id="rId6"/>
     <sheet name="7 MIES" sheetId="18" r:id="rId7"/>
-    <sheet name="8 Andesita" sheetId="26" state="hidden" r:id="rId8"/>
-    <sheet name="Riesgos Críticos" sheetId="16" state="hidden" r:id="rId9"/>
+    <sheet name="8 Andesita" sheetId="26" r:id="rId8"/>
+    <sheet name="Riesgos Críticos" sheetId="16" r:id="rId9"/>
     <sheet name="Hoja1" sheetId="24" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
@@ -2709,47 +2709,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="43" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="22" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="22" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2765,6 +2732,39 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="22" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="22" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2777,6 +2777,48 @@
     <xf numFmtId="0" fontId="27" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2812,48 +2854,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3179,11 +3179,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3203,11 +3203,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color theme="6" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3258,11 +3258,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3282,11 +3282,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color theme="6" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3342,11 +3342,35 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3366,11 +3390,95 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="6" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3390,11 +3498,217 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="5" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3411,6 +3725,356 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3426,11 +4090,30 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color theme="6" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3454,6 +4137,121 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -3474,6 +4272,30 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
@@ -3495,6 +4317,286 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3514,7 +4616,19 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3534,11 +4648,47 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="5" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3558,1161 +4708,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="5" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5107,22 +5107,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
+      <c r="B2" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
     </row>
     <row r="3" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
     </row>
     <row r="4" spans="2:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
@@ -5132,24 +5132,24 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="137"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="126"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="133" t="s">
+      <c r="C6" s="123"/>
+      <c r="D6" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="138"/>
-      <c r="F6" s="139"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="128"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
@@ -5158,11 +5158,11 @@
       <c r="C7" s="45">
         <v>44998</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="D7" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="122"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="133"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
@@ -5172,11 +5172,11 @@
         <f>C7+1</f>
         <v>44999</v>
       </c>
-      <c r="D8" s="128" t="s">
+      <c r="D8" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="129"/>
-      <c r="F8" s="130"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="139"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
@@ -5186,11 +5186,11 @@
         <f t="shared" ref="C9:C13" si="0">C8+1</f>
         <v>45000</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="127"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="136"/>
     </row>
     <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
@@ -5200,11 +5200,11 @@
         <f t="shared" si="0"/>
         <v>45001</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="130"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="139"/>
     </row>
     <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
@@ -5214,11 +5214,11 @@
         <f t="shared" si="0"/>
         <v>45002</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="126"/>
-      <c r="F11" s="127"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="136"/>
       <c r="G11" s="103"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5255,13 +5255,13 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
     </row>
     <row r="17" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
@@ -5271,50 +5271,50 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="119"/>
+      <c r="C18" s="130"/>
       <c r="D18" s="6">
         <f>'2 TRAFICO'!D4</f>
         <v>34.25655976676385</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="119"/>
+      <c r="C19" s="130"/>
       <c r="D19" s="6" t="str">
         <f>'3 INF.OP'!D4</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="119"/>
+      <c r="C20" s="130"/>
       <c r="D20" s="6">
         <f>'4 MANT.VIAS'!D4</f>
         <v>69.575471698113205</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="119"/>
+      <c r="C21" s="130"/>
       <c r="D21" s="6" t="str">
         <f>'5 INTERFLOW'!D4</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="119"/>
+      <c r="C22" s="130"/>
       <c r="D22" s="6">
         <f>'7 MIES'!D4</f>
         <v>79.703832752613238</v>
@@ -5322,11 +5322,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="D6:F6"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="B21:C21"/>
@@ -5338,6 +5333,11 @@
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.1811023622047245" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
@@ -6669,11 +6669,11 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
-      <c r="G1" s="149" t="s">
+      <c r="G1" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="150"/>
-      <c r="I1" s="151"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="165"/>
       <c r="J1" s="92">
         <v>14</v>
       </c>
@@ -6697,19 +6697,19 @@
       </c>
     </row>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="152" t="str">
+      <c r="B2" s="166" t="str">
         <f>'0 Control'!B5:F5</f>
         <v>SEMANA 11</v>
       </c>
-      <c r="C2" s="153"/>
+      <c r="C2" s="167"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
       <c r="J2" s="90">
         <v>2</v>
       </c>
@@ -6729,20 +6729,20 @@
       <c r="P2" s="91"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="168" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="155"/>
+      <c r="C3" s="169"/>
       <c r="D3" s="42">
         <v>5.6</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="146" t="s">
+      <c r="G3" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="147"/>
-      <c r="I3" s="148"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="162"/>
       <c r="J3" s="93">
         <f t="shared" ref="J3:P3" si="0">IF(J1=0, "", $D$3*J1)</f>
         <v>78.399999999999991</v>
@@ -6773,21 +6773,21 @@
       </c>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="145"/>
+      <c r="C4" s="159"/>
       <c r="D4" s="43">
         <f>IF((SUM(J4:P4)/SUM(J3:P3))*100=0, "", (SUM(J4:P4)/SUM(J3:P3))*100)</f>
         <v>34.25655976676385</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="147"/>
-      <c r="I4" s="148"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="162"/>
       <c r="J4" s="22">
         <f>IF(J1=0, "", SUM(J9:J13))</f>
         <v>28</v>
@@ -6823,11 +6823,11 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="159" t="s">
+      <c r="G5" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="160"/>
-      <c r="I5" s="161"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="149"/>
       <c r="J5" s="33">
         <f t="shared" ref="J5:P5" si="1">IF(J1=0, "", (J4/J3)*100)</f>
         <v>35.714285714285722</v>
@@ -6875,26 +6875,26 @@
       <c r="P6" s="40"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="150" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="150" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="162" t="s">
+      <c r="E7" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="164" t="s">
+      <c r="F7" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="166" t="s">
+      <c r="G7" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="168" t="s">
+      <c r="H7" s="155"/>
+      <c r="I7" s="156" t="s">
         <v>118</v>
       </c>
       <c r="J7" s="24" t="s">
@@ -6920,18 +6920,18 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="165"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="153"/>
       <c r="G8" s="77" t="s">
         <v>126</v>
       </c>
       <c r="H8" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="169"/>
+      <c r="I8" s="157"/>
       <c r="J8" s="78">
         <f>+'0 Control'!$C$7</f>
         <v>44998</v>
@@ -7147,26 +7147,33 @@
       <c r="P13" s="76"/>
     </row>
     <row r="14" spans="2:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="157"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="157"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="157"/>
-      <c r="P14" s="158"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="B14:P14"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="B7:B8"/>
@@ -7176,45 +7183,38 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:I12">
-    <cfRule type="expression" dxfId="157" priority="22">
+    <cfRule type="expression" dxfId="157" priority="24">
+      <formula>AND(I9&gt;0,$I4="VEN")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="23">
+      <formula>AND(I9&gt;0,$I4="DTN")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="22">
       <formula>AND(I9&gt;0,$I4="SD")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="24">
-      <formula>AND(I9&gt;0,$I4="VEN")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="23">
-      <formula>AND(I9&gt;0,$I4="DTN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I13">
-    <cfRule type="expression" dxfId="154" priority="20">
-      <formula>AND(I9&gt;0,$I9="DTN")</formula>
+    <cfRule type="expression" dxfId="154" priority="19">
+      <formula>AND(I9&gt;0,$I9="SD")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="153" priority="21">
       <formula>AND(I9&gt;0,$I9="VEN")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="19">
-      <formula>AND(I9&gt;0,$I9="SD")</formula>
+    <cfRule type="expression" dxfId="152" priority="20">
+      <formula>AND(I9&gt;0,$I9="DTN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="151" priority="883">
+    <cfRule type="expression" dxfId="151" priority="884">
+      <formula>AND(I13&gt;0,#REF!="VEN")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="882">
+      <formula>AND(I13&gt;0,#REF!="SD")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="883">
       <formula>AND(I13&gt;0,#REF!="DTN")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="884">
-      <formula>AND(I13&gt;0,#REF!="VEN")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="882">
-      <formula>AND(I13&gt;0,#REF!="SD")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I153">
@@ -7356,11 +7356,11 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
-      <c r="G1" s="149" t="s">
+      <c r="G1" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="150"/>
-      <c r="I1" s="151"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="165"/>
       <c r="J1" s="34">
         <v>6</v>
       </c>
@@ -7384,19 +7384,19 @@
       </c>
     </row>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="152" t="str">
+      <c r="B2" s="166" t="str">
         <f>'0 Control'!B5:F5</f>
         <v>SEMANA 11</v>
       </c>
-      <c r="C2" s="153"/>
+      <c r="C2" s="167"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="150"/>
-      <c r="I2" s="151"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="90">
         <v>2</v>
       </c>
@@ -7416,20 +7416,20 @@
       <c r="P2" s="91"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="168" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="155"/>
+      <c r="C3" s="169"/>
       <c r="D3" s="42">
         <v>5.6</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="146" t="s">
+      <c r="G3" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="147"/>
-      <c r="I3" s="148"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="162"/>
       <c r="J3" s="21">
         <f t="shared" ref="J3:P3" si="0">IF(J1=0, "", $D$3*J1)</f>
         <v>33.599999999999994</v>
@@ -7460,21 +7460,21 @@
       </c>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="145"/>
+      <c r="C4" s="159"/>
       <c r="D4" s="43" t="str">
         <f>IF((SUM(J4:P4)/SUM(J3:P3))*100=0, "", (SUM(J4:P4)/SUM(J3:P3))*100)</f>
         <v/>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="147"/>
-      <c r="I4" s="148"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="162"/>
       <c r="J4" s="22">
         <f t="shared" ref="J4:P4" si="1">IF(J1=0, "", SUM(J9:J45))</f>
         <v>0</v>
@@ -7510,11 +7510,11 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="159" t="s">
+      <c r="G5" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="160"/>
-      <c r="I5" s="161"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="149"/>
       <c r="J5" s="33">
         <f t="shared" ref="J5:P5" si="2">IF(J1=0, "", (J4/J3)*100)</f>
         <v>0</v>
@@ -7562,26 +7562,26 @@
       <c r="P6" s="40"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="150" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="150" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="162" t="s">
+      <c r="E7" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="164" t="s">
+      <c r="F7" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="166" t="s">
+      <c r="G7" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="168" t="s">
+      <c r="H7" s="155"/>
+      <c r="I7" s="156" t="s">
         <v>118</v>
       </c>
       <c r="J7" s="24" t="s">
@@ -8509,6 +8509,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="B46:P46"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="B7:B8"/>
@@ -8518,13 +8525,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:I43 K10:N42">
     <cfRule type="expression" dxfId="120" priority="8">
@@ -8638,11 +8638,11 @@
       <c r="D1" s="16"/>
       <c r="E1" s="15"/>
       <c r="F1" s="16"/>
-      <c r="G1" s="149" t="s">
+      <c r="G1" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
       <c r="J1" s="34">
         <v>21</v>
       </c>
@@ -8665,19 +8665,19 @@
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
-      <c r="B2" s="152" t="str">
+      <c r="B2" s="166" t="str">
         <f>'0 Control'!B5:F5</f>
         <v>SEMANA 11</v>
       </c>
-      <c r="C2" s="152"/>
+      <c r="C2" s="166"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
       <c r="J2" s="90">
         <v>2</v>
       </c>
@@ -8698,20 +8698,20 @@
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="168" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="154"/>
+      <c r="C3" s="168"/>
       <c r="D3" s="42">
         <v>5.6</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="146" t="s">
+      <c r="G3" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
       <c r="J3" s="21">
         <f t="shared" ref="J3:P3" si="0">IF(J1=0, "", $D$3*J1)</f>
         <v>117.6</v>
@@ -8743,21 +8743,21 @@
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="144"/>
+      <c r="C4" s="158"/>
       <c r="D4" s="43">
         <f>IF((SUM(J4:P4)/SUM(J3:P3))*100=0, "", (SUM(J4:P4)/SUM(J3:P3))*100)</f>
         <v>69.575471698113205</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="22">
         <f t="shared" ref="J4:P4" si="1">IF(J1=0, "", SUM(J9:J85))</f>
         <v>70</v>
@@ -8794,11 +8794,11 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="159" t="s">
+      <c r="G5" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
       <c r="J5" s="33">
         <f t="shared" ref="J5:P5" si="2">IF(J1=0, "", (J4/J3)*100)</f>
         <v>59.523809523809526</v>
@@ -8848,26 +8848,26 @@
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="150" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="150" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="162" t="s">
+      <c r="E7" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="164" t="s">
+      <c r="F7" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="166" t="s">
+      <c r="G7" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="166"/>
-      <c r="I7" s="168" t="s">
+      <c r="H7" s="154"/>
+      <c r="I7" s="156" t="s">
         <v>118</v>
       </c>
       <c r="J7" s="24" t="s">
@@ -8894,18 +8894,18 @@
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="164"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="152"/>
       <c r="G8" s="44" t="s">
         <v>126</v>
       </c>
       <c r="H8" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="168"/>
+      <c r="I8" s="156"/>
       <c r="J8" s="26">
         <f>+'0 Control'!$C$7</f>
         <v>44998</v>
@@ -10911,6 +10911,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="B86:P86"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="B7:B8"/>
@@ -10920,13 +10927,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="I86:I249">
     <cfRule type="cellIs" dxfId="103" priority="113" operator="equal">
@@ -11087,11 +11087,11 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
-      <c r="G1" s="149" t="s">
+      <c r="G1" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="150"/>
-      <c r="I1" s="151"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="165"/>
       <c r="J1" s="34">
         <v>1</v>
       </c>
@@ -11111,19 +11111,19 @@
       <c r="P1" s="34"/>
     </row>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="152" t="str">
+      <c r="B2" s="166" t="str">
         <f>'0 Control'!B5:F5</f>
         <v>SEMANA 11</v>
       </c>
-      <c r="C2" s="153"/>
+      <c r="C2" s="167"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="150"/>
-      <c r="I2" s="151"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="90">
         <v>2</v>
       </c>
@@ -11143,20 +11143,20 @@
       <c r="P2" s="91"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="168" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="155"/>
+      <c r="C3" s="169"/>
       <c r="D3" s="42">
         <v>5.6</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="146" t="s">
+      <c r="G3" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="147"/>
-      <c r="I3" s="148"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="162"/>
       <c r="J3" s="21">
         <f t="shared" ref="J3:P3" si="0">IF(J1=0, "", $D$3*J1)</f>
         <v>5.6</v>
@@ -11187,21 +11187,21 @@
       </c>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="145"/>
+      <c r="C4" s="159"/>
       <c r="D4" s="43" t="str">
         <f>IF((SUM(J4:P4)/SUM(J3:P3))*100=0, "", (SUM(J4:P4)/SUM(J3:P3))*100)</f>
         <v/>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="147"/>
-      <c r="I4" s="148"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="162"/>
       <c r="J4" s="22">
         <f t="shared" ref="J4:P4" si="1">IF(J1=0, "", SUM(J9:J16))</f>
         <v>0</v>
@@ -11237,11 +11237,11 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="159" t="s">
+      <c r="G5" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="160"/>
-      <c r="I5" s="161"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="149"/>
       <c r="J5" s="33">
         <f t="shared" ref="J5:P5" si="2">IF(J1=0, "", (J4/J3)*100)</f>
         <v>0</v>
@@ -11289,26 +11289,26 @@
       <c r="P6" s="40"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="150" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="150" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="162" t="s">
+      <c r="E7" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="164" t="s">
+      <c r="F7" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="166" t="s">
+      <c r="G7" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="168" t="s">
+      <c r="H7" s="155"/>
+      <c r="I7" s="156" t="s">
         <v>118</v>
       </c>
       <c r="J7" s="24" t="s">
@@ -11568,7 +11568,7 @@
       <c r="P16" s="32"/>
     </row>
     <row r="17" spans="2:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="156" t="s">
+      <c r="B17" s="144" t="s">
         <v>130</v>
       </c>
       <c r="C17" s="176"/>
@@ -11588,13 +11588,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G3:I3"/>
     <mergeCell ref="B17:P17"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="B7:B8"/>
@@ -11604,6 +11597,13 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="I17:I180">
     <cfRule type="cellIs" dxfId="71" priority="150" operator="equal">
@@ -11718,11 +11718,11 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
-      <c r="G1" s="149" t="s">
+      <c r="G1" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
       <c r="J1" s="34">
         <v>41</v>
       </c>
@@ -11742,19 +11742,19 @@
       <c r="P1" s="34"/>
     </row>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="152" t="str">
+      <c r="B2" s="166" t="str">
         <f>'0 Control'!B5:F5</f>
         <v>SEMANA 11</v>
       </c>
-      <c r="C2" s="152"/>
+      <c r="C2" s="166"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
       <c r="J2" s="90">
         <v>2</v>
       </c>
@@ -11774,20 +11774,20 @@
       <c r="P2" s="91"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="168" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="154"/>
+      <c r="C3" s="168"/>
       <c r="D3" s="42">
         <v>5.6</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="146" t="s">
+      <c r="G3" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
       <c r="J3" s="21">
         <f t="shared" ref="J3:P3" si="0">IF(J1=0, "", $D$3*J1)</f>
         <v>229.6</v>
@@ -11818,21 +11818,21 @@
       </c>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="144"/>
+      <c r="C4" s="158"/>
       <c r="D4" s="43">
         <f>IF((SUM(J4:P4)/SUM(J3:P3))*100=0, "", (SUM(J4:P4)/SUM(J3:P3))*100)</f>
         <v>79.703832752613238</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="22">
         <f t="shared" ref="J4:P4" si="1">IF(J1=0, "", SUM(J9:J96))</f>
         <v>187</v>
@@ -11868,11 +11868,11 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="159" t="s">
+      <c r="G5" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
       <c r="J5" s="33">
         <f t="shared" ref="J5:P5" si="2">IF(J1=0, "", (J4/J3)*100)</f>
         <v>81.445993031358881</v>
@@ -11920,26 +11920,26 @@
       <c r="P6" s="40"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="150" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="150" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="162" t="s">
+      <c r="E7" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="164" t="s">
+      <c r="F7" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="166" t="s">
+      <c r="G7" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="166"/>
-      <c r="I7" s="168" t="s">
+      <c r="H7" s="154"/>
+      <c r="I7" s="156" t="s">
         <v>118</v>
       </c>
       <c r="J7" s="24" t="s">
@@ -11965,18 +11965,18 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="164"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="152"/>
       <c r="G8" s="59" t="s">
         <v>126</v>
       </c>
       <c r="H8" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="168"/>
+      <c r="I8" s="156"/>
       <c r="J8" s="26">
         <f>+'0 Control'!$C$7</f>
         <v>44998</v>
@@ -14540,7 +14540,7 @@
       <c r="P96" s="32"/>
     </row>
     <row r="97" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="156"/>
+      <c r="A97" s="144"/>
       <c r="B97" s="178"/>
       <c r="C97" s="178"/>
       <c r="D97" s="178"/>
@@ -14558,6 +14558,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="A97:O97"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="B7:B8"/>
@@ -14567,13 +14574,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="H97">
     <cfRule type="cellIs" dxfId="54" priority="542" operator="equal">
@@ -14587,11 +14587,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I67 O31:P94">
-    <cfRule type="expression" dxfId="51" priority="68">
+    <cfRule type="expression" dxfId="51" priority="67">
+      <formula>AND(I10&gt;0,$I10="DTN")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="68">
       <formula>AND(I10&gt;0,$I10="VEN")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="67">
-      <formula>AND(I10&gt;0,$I10="DTN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68:I94">
@@ -14609,19 +14609,19 @@
     <cfRule type="cellIs" dxfId="46" priority="769" operator="equal">
       <formula>"VEN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="768" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="767" operator="equal">
+      <formula>"SD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="768" operator="equal">
       <formula>"DTN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="767" operator="equal">
-      <formula>"SD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:P9 J10:P16 J10:J65 K14:K24 L17:P19 L18:L23 M20:P20 N21:P30 L22:M24 M24:M35 K25:M25 N28:N35 K36:N62 N58:N72 M68 O98:P107 J108:P260">
-    <cfRule type="expression" dxfId="43" priority="766">
+    <cfRule type="expression" dxfId="43" priority="765">
+      <formula>AND(I9&gt;0,$I9="DTN")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="766">
       <formula>AND(I9&gt;0,$I9="VEN")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="765">
-      <formula>AND(I9&gt;0,$I9="DTN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:P9 J10:P16 L17:P19 M20:P20 N21:P30 M68 K14:K24 L18:L23 L22:M24 M24:M35 K25:M25 K36:N62 N58:N72 O98:P107 J108:P260">
@@ -14630,11 +14630,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95:P97">
-    <cfRule type="expression" dxfId="40" priority="539">
+    <cfRule type="expression" dxfId="40" priority="538">
+      <formula>AND(I95&gt;0,$I95="DTN")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="539">
       <formula>AND(I95&gt;0,$I95="VEN")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="538">
-      <formula>AND(I95&gt;0,$I95="DTN")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="38" priority="537">
       <formula>AND(I95&gt;0,$I95="SD")</formula>
@@ -14654,14 +14654,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72:J94">
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
-      <formula>"VEN"</formula>
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+      <formula>"SD"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
       <formula>"DTN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
-      <formula>"SD"</formula>
+    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+      <formula>"VEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J98:N98 J99:L99 N99 J100:N107">
@@ -14681,14 +14681,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:M72 K73:N94">
-    <cfRule type="expression" dxfId="27" priority="15">
-      <formula>AND(K63&gt;0,$I63="VEN")</formula>
+    <cfRule type="expression" dxfId="27" priority="13">
+      <formula>AND(K63&gt;0,$I63="SD")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="26" priority="14">
       <formula>AND(K63&gt;0,$I63="DTN")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="13">
-      <formula>AND(K63&gt;0,$I63="SD")</formula>
+    <cfRule type="expression" dxfId="25" priority="15">
+      <formula>AND(K63&gt;0,$I63="VEN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21 K26:L35 N26:N35">
@@ -14753,11 +14753,11 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
-      <c r="G1" s="149" t="s">
+      <c r="G1" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="150"/>
-      <c r="I1" s="151"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="165"/>
       <c r="J1" s="34">
         <v>1</v>
       </c>
@@ -14777,19 +14777,19 @@
       <c r="P1" s="34"/>
     </row>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="152" t="str">
+      <c r="B2" s="166" t="str">
         <f>'0 Control'!B5:F5</f>
         <v>SEMANA 11</v>
       </c>
-      <c r="C2" s="153"/>
+      <c r="C2" s="167"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="150"/>
-      <c r="I2" s="151"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="90">
         <v>2</v>
       </c>
@@ -14809,20 +14809,20 @@
       <c r="P2" s="91"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="168" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="155"/>
+      <c r="C3" s="169"/>
       <c r="D3" s="42">
         <v>5.6</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="146" t="s">
+      <c r="G3" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="147"/>
-      <c r="I3" s="148"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="162"/>
       <c r="J3" s="21">
         <f t="shared" ref="J3:P3" si="0">IF(J1=0, "", $D$3*J1)</f>
         <v>5.6</v>
@@ -14853,21 +14853,21 @@
       </c>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="145"/>
+      <c r="C4" s="159"/>
       <c r="D4" s="43" t="str">
         <f>IF((SUM(J4:P4)/SUM(J3:P3))*100=0, "", (SUM(J4:P4)/SUM(J3:P3))*100)</f>
         <v/>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="147"/>
-      <c r="I4" s="148"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="162"/>
       <c r="J4" s="22">
         <f t="shared" ref="J4:P4" si="1">IF(J1=0, "", SUM(J9:J17))</f>
         <v>0</v>
@@ -14903,11 +14903,11 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="159" t="s">
+      <c r="G5" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="160"/>
-      <c r="I5" s="161"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="149"/>
       <c r="J5" s="33">
         <f t="shared" ref="J5:P5" si="2">IF(J1=0, "", (J4/J3)*100)</f>
         <v>0</v>
@@ -14955,26 +14955,26 @@
       <c r="P6" s="40"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="150" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="150" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="162" t="s">
+      <c r="E7" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="164" t="s">
+      <c r="F7" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="166" t="s">
+      <c r="G7" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="168" t="s">
+      <c r="H7" s="155"/>
+      <c r="I7" s="156" t="s">
         <v>118</v>
       </c>
       <c r="J7" s="24" t="s">
@@ -15228,7 +15228,7 @@
       <c r="P17" s="32"/>
     </row>
     <row r="18" spans="2:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="156" t="s">
+      <c r="B18" s="144" t="s">
         <v>130</v>
       </c>
       <c r="C18" s="176"/>
@@ -15248,6 +15248,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="B18:P18"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="B7:B8"/>
@@ -15257,13 +15264,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:I181">
     <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
@@ -15366,6 +15366,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="13292f55-de52-430d-b14b-7bbbc007da08">
+      <UserInfo>
+        <DisplayName>Lizana Fuentes Carolina Nazarena (Codelco-Teniente)</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Toro Uribe Daniza (Codelco-Teniente)</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Osorio Pavéz Adriana Isabel  (Codelco-Teniente)</DisplayName>
+        <AccountId>12</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Nuñez Segulla Christian Andres (Codelco-Teniente)</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010077EEB9F3B60CE24689AC59713F949007" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="cdea405b8273413c4beaca1fabe21eda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0cd65d8d-9a0c-413b-b337-26d3d6865661" xmlns:ns3="13292f55-de52-430d-b14b-7bbbc007da08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2d07ffba926563d076d4f21b18b95d9" ns2:_="" ns3:_="">
     <xsd:import namespace="0cd65d8d-9a0c-413b-b337-26d3d6865661"/>
@@ -15568,35 +15597,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="13292f55-de52-430d-b14b-7bbbc007da08">
-      <UserInfo>
-        <DisplayName>Lizana Fuentes Carolina Nazarena (Codelco-Teniente)</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Toro Uribe Daniza (Codelco-Teniente)</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Osorio Pavéz Adriana Isabel  (Codelco-Teniente)</DisplayName>
-        <AccountId>12</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Nuñez Segulla Christian Andres (Codelco-Teniente)</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -15607,6 +15607,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE985242-E434-4BC2-931D-7A535FD5A5E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="13292f55-de52-430d-b14b-7bbbc007da08"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABDC57C-00E6-4069-A304-363377F1B35A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15625,16 +15635,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE985242-E434-4BC2-931D-7A535FD5A5E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="13292f55-de52-430d-b14b-7bbbc007da08"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6694C59C-A506-40B5-9FBF-5C26D4C67255}">
   <ds:schemaRefs>
